--- a/P05/docs/MASS_Scrum.xlsx
+++ b/P05/docs/MASS_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\VM\Github\cse1325\P05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\VM\Github\cse1325\P05\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A539ED1-0CB5-42FF-928F-DFDBD21F3317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE554B3-B9CB-4A6A-A7E7-3BB10DD167C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="165">
   <si>
     <t>Product Name:</t>
   </si>
@@ -647,9 +647,6 @@
     <t xml:space="preserve">Define all concrete methods (and constructors) </t>
   </si>
   <si>
-    <t>implement abstract methods from Animal</t>
-  </si>
-  <si>
     <t>Write DogBreed enum</t>
   </si>
   <si>
@@ -663,6 +660,24 @@
   </si>
   <si>
     <t>Team IK</t>
+  </si>
+  <si>
+    <t>Write CatBreed enum</t>
+  </si>
+  <si>
+    <t>Write Cat class</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
+  </si>
+  <si>
+    <t>Write Shelter class, its fields, and its constructor</t>
+  </si>
+  <si>
+    <t>Write getters for number of animals and specific animals</t>
+  </si>
+  <si>
+    <t>Write a string implementation for the list</t>
   </si>
 </sst>
 </file>
@@ -940,6 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -952,7 +968,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,28 +1486,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2348,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-GB" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2481,7 +2496,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2555,7 +2570,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-GB" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3488,8 +3503,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3512,14 +3527,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
         <v>2</v>
@@ -3530,14 +3545,14 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -3576,14 +3591,14 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="5" t="s">
         <v>148</v>
       </c>
@@ -3863,10 +3878,10 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="46"/>
       <c r="H22" s="2"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -3989,7 +4004,9 @@
       <c r="F26" s="16">
         <v>1</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
       </c>
@@ -7376,8 +7393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -7480,7 +7497,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -7495,7 +7512,7 @@
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -7513,7 +7530,7 @@
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -7531,7 +7548,7 @@
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -7549,7 +7566,7 @@
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -7567,11 +7584,11 @@
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -7585,11 +7602,11 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -7603,7 +7620,7 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -7652,7 +7669,7 @@
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="42" t="s">
         <v>151</v>
       </c>
       <c r="E17" s="41" t="s">
@@ -7684,7 +7701,7 @@
         <v>153</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7692,13 +7709,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7709,10 +7726,10 @@
         <v>35</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7723,10 +7740,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7736,8 +7753,12 @@
       <c r="B23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
@@ -7746,8 +7767,12 @@
       <c r="B24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
@@ -7756,8 +7781,12 @@
       <c r="B25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -7767,9 +7796,11 @@
         <v>40</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="41"/>
+        <v>157</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -7778,8 +7809,12 @@
       <c r="B27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -8417,7 +8452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9414,7 +9449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10411,7 +10446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -11407,7 +11442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/P05/docs/MASS_Scrum.xlsx
+++ b/P05/docs/MASS_Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\VM\Github\cse1325\P05\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE554B3-B9CB-4A6A-A7E7-3BB10DD167C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71F1493-2E13-45E9-9938-84713853BD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -632,9 +632,6 @@
     <t>ICO</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Completed Day 4</t>
   </si>
   <si>
@@ -678,6 +675,9 @@
   </si>
   <si>
     <t>Write a string implementation for the list</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -1190,19 +1190,19 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,8 +3503,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3546,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
@@ -3714,11 +3714,11 @@
       </c>
       <c r="B13" s="2">
         <f>B12-C13</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 2")</f>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>31</v>
@@ -3972,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>36</v>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>36</v>
@@ -7393,7 +7393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -7670,10 +7670,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7684,10 +7684,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7698,10 +7698,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7712,10 +7712,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7726,10 +7726,10 @@
         <v>35</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7740,10 +7740,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7754,10 +7754,10 @@
         <v>44</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7768,10 +7768,10 @@
         <v>44</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7796,10 +7796,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7810,10 +7810,10 @@
         <v>40</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5">
